--- a/parametros/DatosAutenticacion.xlsx
+++ b/parametros/DatosAutenticacion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Semillero QA\projects\MercadoLibre-Screenplay\parametros\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04C8D261-B427-4C91-849C-229ECACB651C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE18961A-76D9-4651-A955-4524DE9946EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>correo</t>
   </si>
@@ -39,13 +39,19 @@
     <t>apellido</t>
   </si>
   <si>
-    <t>celular</t>
-  </si>
-  <si>
     <t>paangudi3@gmail.com</t>
   </si>
   <si>
     <t>Scant9756</t>
+  </si>
+  <si>
+    <t>paula</t>
+  </si>
+  <si>
+    <t>gutierrez</t>
+  </si>
+  <si>
+    <t>telefono</t>
   </si>
 </sst>
 </file>
@@ -393,7 +399,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -401,8 +407,8 @@
     <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -419,19 +425,25 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
+      <c r="D2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="3">
+        <v>3112435131</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>

--- a/parametros/DatosAutenticacion.xlsx
+++ b/parametros/DatosAutenticacion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Semillero QA\projects\MercadoLibre-Screenplay\parametros\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE18961A-76D9-4651-A955-4524DE9946EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D351A13A-DBC0-4E2C-B7F1-ABD8A95D7D71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,19 +39,19 @@
     <t>apellido</t>
   </si>
   <si>
+    <t>Scant9756</t>
+  </si>
+  <si>
+    <t>paula</t>
+  </si>
+  <si>
+    <t>gutierrez</t>
+  </si>
+  <si>
+    <t>telefono</t>
+  </si>
+  <si>
     <t>paangudi3@gmail.com</t>
-  </si>
-  <si>
-    <t>Scant9756</t>
-  </si>
-  <si>
-    <t>paula</t>
-  </si>
-  <si>
-    <t>gutierrez</t>
-  </si>
-  <si>
-    <t>telefono</t>
   </si>
 </sst>
 </file>
@@ -399,12 +399,12 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
@@ -425,21 +425,21 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>7</v>
       </c>
       <c r="E2" s="3">
         <v>3112435131</v>
